--- a/data/grant.xlsx
+++ b/data/grant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\jy_cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjlin\Documents\BJL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EE9AB0-B56F-4E67-A031-5570E68CA43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7117A22-A9B5-4B8A-AE02-8CD0F1B2CBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="2440" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="3488" windowWidth="18225" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>what</t>
   </si>
@@ -37,130 +37,43 @@
     <t>why</t>
   </si>
   <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>Providing Touchable Knowledge Structure Graphic Feedback for Blind Online Learners: Tablet-Based Haptic Feedback and Paper-Based Tactile Feedback</t>
-  </si>
-  <si>
-    <t>Mar. 2016 - Aug. 2017</t>
-  </si>
-  <si>
-    <t>Developed a prototype website and mobile app for accessible knowledge structure.</t>
-  </si>
-  <si>
-    <t>Center for Online Innovation in Learning, The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>Co-led (Co-PI) a development project funded by Penn State to provide blind online learners with accessible network graphs that measure students’ knowledge structure.</t>
-  </si>
-  <si>
-    <t>Jul. 2010 - Jun. 2011</t>
-  </si>
-  <si>
-    <t>Seed Funding for Start-Up Company for the Youth, City of Seoul</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>Funding amount: $30,000 USD.</t>
-  </si>
-  <si>
-    <t>Co-Founded and Project-Managed ICE Soft.</t>
-  </si>
-  <si>
-    <t>Worked with a team and developed an gps app for the blind.</t>
-  </si>
-  <si>
-    <t>Dissertation Research Initiation Grant</t>
-  </si>
-  <si>
-    <t>Feb. 2020 - Dec. 2020</t>
-  </si>
-  <si>
-    <t>College of Education, The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>Selected as one of the 10 outstanding dissertation research proposals in 2019-2020 academic year.</t>
-  </si>
-  <si>
-    <t>ICE Soft: I See through Assistive Technology</t>
-  </si>
-  <si>
-    <t>2014 - 2016</t>
-  </si>
-  <si>
-    <t>National Institute for International Education, Korean Government</t>
-  </si>
-  <si>
-    <t>Fully sponsored by Korean Government for the Master's research.</t>
-  </si>
-  <si>
-    <t>Future Interdisciplinary Study</t>
-  </si>
-  <si>
-    <t>Funding amount: $70,000 USD.</t>
-  </si>
-  <si>
-    <t>Funding amount: $33,060 USD.</t>
-  </si>
-  <si>
-    <t>Funding amount: $600 USD.</t>
-  </si>
-  <si>
-    <t>2016 - 2018</t>
-  </si>
-  <si>
-    <t>ChungInwook Scholarship Foundation</t>
-  </si>
-  <si>
-    <t>Doctoral Research</t>
-  </si>
-  <si>
-    <t>Innovative Research Funding</t>
-  </si>
-  <si>
-    <t>Data Accessibilization: Making Data Science Education Accessible for Blind Learners</t>
-  </si>
-  <si>
-    <t>Wallace Foundation grant</t>
-  </si>
-  <si>
-    <t>Emerging Scholars Program</t>
-  </si>
-  <si>
-    <t>International Society of the Learning Sciences</t>
-  </si>
-  <si>
-    <t>Jan. 2022 - Dec. 2022</t>
-  </si>
-  <si>
-    <t>Improving Accessible Reproducibility for Data Science Publishing System</t>
-  </si>
-  <si>
-    <t>May. 2022 - Apr. 2023</t>
-  </si>
-  <si>
-    <t>Corporate Partner R&amp;D Funding</t>
-  </si>
-  <si>
-    <t>RStudio PBC</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
-    <t>Whole Tale Accessibility Project</t>
-  </si>
-  <si>
-    <t>Aug. 2022 - Aug. 2023</t>
-  </si>
-  <si>
-    <t>Sloan Foundation</t>
-  </si>
-  <si>
-    <t>Awarded funding amount: $10,000.00.</t>
+    <t>Normal Newell Early Career Grant</t>
+  </si>
+  <si>
+    <t>The Paleontological Society</t>
+  </si>
+  <si>
+    <t>$5,000 USD</t>
+  </si>
+  <si>
+    <t>Statolith Geochemistry</t>
+  </si>
+  <si>
+    <t>Geological Society of America</t>
+  </si>
+  <si>
+    <t>Western Interior Seaway Thermohaline Stratification by Ion Microprobe of Ammonites</t>
+  </si>
+  <si>
+    <t>Seasonality of Epicontinental Seas recorded in epithecal banding of Paleozoic Rugose Coral</t>
+  </si>
+  <si>
+    <t>Graduate Research</t>
+  </si>
+  <si>
+    <t>SIGMA XI</t>
+  </si>
+  <si>
+    <t>Undergraduate Research</t>
+  </si>
+  <si>
+    <t>Bowling Green State University</t>
+  </si>
+  <si>
+    <t>Taphonomic and Ontogenetic Study of Orthocone Nautiloids of the Pennsylvanian Buckhorn Asphalt of Oklahoma Using Temporal Resolved Data Collected via LA-ICP-OES</t>
+  </si>
+  <si>
+    <t>The Forgotten Mastodon: Preservation and Description of a Historic Proboscidean Discovery from 1884, Wood County, Ohio</t>
   </si>
 </sst>
 </file>
@@ -1001,15 +914,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,174 +939,79 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2013</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2010</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>46</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>2009</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>2009</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E18" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
